--- a/com.bankofamerica/src/test/resources/Test_Data.xlsx
+++ b/com.bankofamerica/src/test/resources/Test_Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zohralamrani/IdeaProjects/Team1SeleniumBootcamp/com.bankofamerica/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD4477-82F4-BC46-AE5A-A378243A899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C808058A-8389-E244-AAD9-58FF57BC75E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="500" windowWidth="28040" windowHeight="17180" xr2:uid="{7FE42588-5768-AC47-BC08-6BDFF451746C}"/>
+    <workbookView xWindow="5560" yWindow="500" windowWidth="28040" windowHeight="17180" activeTab="1" xr2:uid="{7FE42588-5768-AC47-BC08-6BDFF451746C}"/>
   </bookViews>
   <sheets>
-    <sheet name="MobileAndOnlineBanking" sheetId="1" r:id="rId1"/>
+    <sheet name="title" sheetId="2" r:id="rId1"/>
+    <sheet name="MobileAndOnlineBanking" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Bank Of America</t>
+    <t>Take charge of your account, at home or on the go</t>
   </si>
   <si>
-    <t>Take charge of your account, at home or on the go</t>
+    <t>BANK OF AMERICA</t>
   </si>
 </sst>
 </file>
@@ -391,23 +392,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84A83F0-ADB6-C045-8A0E-8DA0C5B5D40C}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BCA749-B2E0-B24A-A8F2-3DE69EEC8FE1}">
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
@@ -416,4 +409,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84A83F0-ADB6-C045-8A0E-8DA0C5B5D40C}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>